--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -19,44 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-722: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
   <si>
-    <t>5сен</t>
-  </si>
-  <si>
-    <t>12сен</t>
-  </si>
-  <si>
-    <t>19сен</t>
-  </si>
-  <si>
-    <t>26сен</t>
-  </si>
-  <si>
-    <t>3окт</t>
-  </si>
-  <si>
-    <t>10окт</t>
-  </si>
-  <si>
-    <t>17окт</t>
-  </si>
-  <si>
-    <t>24окт</t>
-  </si>
-  <si>
-    <t>31окт</t>
-  </si>
-  <si>
-    <t>7ноя</t>
-  </si>
-  <si>
-    <t>14ноя</t>
-  </si>
-  <si>
     <t>Вострова Арина</t>
   </si>
   <si>
@@ -145,6 +112,24 @@
   </si>
   <si>
     <t>Ялунин Максим</t>
+  </si>
+  <si>
+    <t>Дз1</t>
+  </si>
+  <si>
+    <t>Дз2</t>
+  </si>
+  <si>
+    <t>Дз3</t>
+  </si>
+  <si>
+    <t>Дз4</t>
+  </si>
+  <si>
+    <t>Дз5</t>
+  </si>
+  <si>
+    <t>Дз6</t>
   </si>
 </sst>
 </file>
@@ -241,9 +226,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,10 +536,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB29" sqref="AB29"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -565,29 +550,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
@@ -631,71 +616,39 @@
     </row>
     <row r="3" spans="1:40" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -758,13 +711,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -775,30 +726,19 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5">
-        <v>5</v>
-      </c>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5">
-        <v>5</v>
-      </c>
-      <c r="V5" s="5">
-        <v>5</v>
-      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3">
-        <f>SUM(C5:X5)</f>
-        <v>20</v>
-      </c>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3">
-        <v>4</v>
-      </c>
+      <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -817,55 +757,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5">
-        <v>5</v>
-      </c>
-      <c r="P6" s="5">
-        <v>5</v>
-      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5">
-        <v>5</v>
-      </c>
-      <c r="T6" s="5">
-        <v>5</v>
-      </c>
-      <c r="U6" s="5">
-        <v>5</v>
-      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5">
-        <v>5</v>
-      </c>
+      <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3">
-        <f t="shared" ref="Z6:Z34" si="0">SUM(C6:X6)</f>
-        <v>40</v>
-      </c>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
@@ -884,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -897,34 +816,21 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>5</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
-        <v>5</v>
-      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="5">
-        <v>5</v>
-      </c>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5">
-        <v>5</v>
-      </c>
+      <c r="X7" s="5"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3">
-        <v>4</v>
-      </c>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -943,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -968,10 +874,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -992,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1017,10 +920,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -1041,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1066,10 +966,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -1090,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1101,36 +998,23 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>5</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5">
-        <v>5</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5">
-        <v>5</v>
-      </c>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3">
-        <v>4</v>
-      </c>
+      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1149,53 +1033,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>5</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <v>5</v>
-      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5">
-        <v>5</v>
-      </c>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1214,55 +1079,34 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>5</v>
-      </c>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>5</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5">
-        <v>5</v>
-      </c>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>5</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5">
-        <v>5</v>
-      </c>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5">
-        <v>5</v>
-      </c>
-      <c r="V13" s="5">
-        <v>5</v>
-      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -1281,15 +1125,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1297,37 +1139,20 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="5">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5">
-        <v>5</v>
-      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5">
-        <v>5</v>
-      </c>
-      <c r="T14" s="5">
-        <v>5</v>
-      </c>
-      <c r="U14" s="5">
-        <v>5</v>
-      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5">
-        <v>5</v>
-      </c>
+      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1346,55 +1171,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5">
-        <v>5</v>
-      </c>
-      <c r="P15" s="5">
-        <v>5</v>
-      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5">
-        <v>5</v>
-      </c>
+      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5">
-        <v>5</v>
-      </c>
-      <c r="V15" s="5">
-        <v>5</v>
-      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="9">
-        <v>5</v>
-      </c>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -1413,14 +1217,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1430,9 +1232,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5">
-        <v>5</v>
-      </c>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1442,14 +1242,9 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB16" s="7"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
@@ -1468,14 +1263,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1485,9 +1278,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5">
-        <v>5</v>
-      </c>
+      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -1497,14 +1288,9 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB17" s="7"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -1523,49 +1309,34 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5">
-        <v>5</v>
-      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5">
-        <v>5</v>
-      </c>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5">
-        <v>5</v>
-      </c>
+      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB18" s="7"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -1584,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1602,25 +1373,16 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5">
-        <v>5</v>
-      </c>
+      <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5">
-        <v>5</v>
-      </c>
+      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB19" s="7"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -1639,19 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5">
-        <v>5</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1661,27 +1417,18 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5">
-        <v>5</v>
-      </c>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5">
-        <v>5</v>
-      </c>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB20" s="7"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -1700,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1717,9 +1464,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5">
-        <v>5</v>
-      </c>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -1727,14 +1472,9 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB21" s="7"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -1753,10 +1493,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
       <c r="E22" s="5">
         <v>5</v>
       </c>
@@ -1770,52 +1514,25 @@
         <v>5</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5">
-        <v>5</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5">
-        <v>5</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5">
-        <v>5</v>
-      </c>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>5</v>
-      </c>
-      <c r="R22" s="5">
-        <v>5</v>
-      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="5">
-        <v>5</v>
-      </c>
-      <c r="U22" s="5">
-        <v>5</v>
-      </c>
-      <c r="V22" s="5">
-        <v>5</v>
-      </c>
-      <c r="W22" s="5">
-        <v>5</v>
-      </c>
-      <c r="X22" s="5">
-        <v>5</v>
-      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -1834,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1850,27 +1567,18 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5">
-        <v>5</v>
-      </c>
+      <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5">
-        <v>5</v>
-      </c>
+      <c r="X23" s="5"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB23" s="7"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -1889,63 +1597,34 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>5</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5">
-        <v>5</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5">
-        <v>5</v>
-      </c>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5">
-        <v>5</v>
-      </c>
-      <c r="R24" s="5">
-        <v>5</v>
-      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5">
-        <v>5</v>
-      </c>
-      <c r="V24" s="5">
-        <v>5</v>
-      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
@@ -1964,30 +1643,20 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>5</v>
-      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5">
-        <v>5</v>
-      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5">
-        <v>5</v>
-      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -1999,14 +1668,9 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB25" s="7"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -2025,61 +1689,34 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <v>5</v>
-      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5">
-        <v>5</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5">
-        <v>5</v>
-      </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="5">
-        <v>5</v>
-      </c>
-      <c r="U26" s="5">
-        <v>5</v>
-      </c>
-      <c r="V26" s="5">
-        <v>5</v>
-      </c>
-      <c r="W26" s="5">
-        <v>5</v>
-      </c>
-      <c r="X26" s="5">
-        <v>5</v>
-      </c>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
@@ -2098,7 +1735,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2117,24 +1754,15 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="5">
-        <v>5</v>
-      </c>
+      <c r="T27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="5">
-        <v>5</v>
-      </c>
+      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB27" s="7"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
@@ -2153,7 +1781,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2168,9 +1796,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5">
-        <v>5</v>
-      </c>
+      <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -2180,14 +1806,9 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="9">
-        <v>3</v>
-      </c>
+      <c r="AB28" s="7"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -2206,69 +1827,34 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>5</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5">
-        <v>5</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5">
-        <v>5</v>
-      </c>
-      <c r="K29" s="5">
-        <v>5</v>
-      </c>
-      <c r="L29" s="5">
-        <v>5</v>
-      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5">
-        <v>5</v>
-      </c>
+      <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>5</v>
-      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="5">
-        <v>5</v>
-      </c>
-      <c r="U29" s="5">
-        <v>5</v>
-      </c>
-      <c r="V29" s="5">
-        <v>5</v>
-      </c>
-      <c r="W29" s="5">
-        <v>5</v>
-      </c>
-      <c r="X29" s="5">
-        <v>5</v>
-      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
+      <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -2287,15 +1873,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>5</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2309,23 +1893,14 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="5">
-        <v>5</v>
-      </c>
-      <c r="V30" s="5">
-        <v>5</v>
-      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB30" s="7"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
@@ -2344,31 +1919,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>4</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5">
-        <v>5</v>
-      </c>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>5</v>
-      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -2377,14 +1944,9 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB31" s="7"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
@@ -2403,7 +1965,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2412,19 +1974,13 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5">
-        <v>5</v>
-      </c>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="5">
-        <v>5</v>
-      </c>
-      <c r="P32" s="5">
-        <v>5</v>
-      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -2432,18 +1988,11 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="5">
-        <v>5</v>
-      </c>
+      <c r="X32" s="5"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB32" s="7"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
@@ -2462,47 +2011,46 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5">
-        <v>5</v>
-      </c>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5">
-        <v>5</v>
-      </c>
-      <c r="R33" s="5">
-        <v>5</v>
-      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5">
-        <v>5</v>
-      </c>
+      <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -2521,14 +2069,12 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5">
-        <v>5</v>
-      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2540,26 +2086,17 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5">
-        <v>5</v>
-      </c>
+      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="5">
-        <v>5</v>
-      </c>
+      <c r="X34" s="5"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB34" s="7"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -2574,76 +2111,32 @@
       <c r="AN34" s="3"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6">
-        <v>1</v>
-      </c>
-      <c r="M35" s="6">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6">
-        <v>1</v>
-      </c>
-      <c r="O35" s="6">
-        <v>1</v>
-      </c>
-      <c r="P35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6">
-        <v>1</v>
-      </c>
-      <c r="S35" s="6">
-        <v>1</v>
-      </c>
-      <c r="T35" s="6">
-        <v>1</v>
-      </c>
-      <c r="U35" s="6">
-        <v>1</v>
-      </c>
-      <c r="V35" s="6">
-        <v>1</v>
-      </c>
-      <c r="W35" s="6">
-        <v>1</v>
-      </c>
-      <c r="X35" s="6">
-        <v>1</v>
-      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="9"/>
+      <c r="AB35" s="7"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ИСИП-722: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Дз6</t>
+  </si>
+  <si>
+    <t>Варианты</t>
   </si>
 </sst>
 </file>
@@ -536,17 +539,19 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="24" width="3.81640625" customWidth="1"/>
+    <col min="3" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" customWidth="1"/>
+    <col min="12" max="24" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="25" customHeight="1" x14ac:dyDescent="0.4">
@@ -635,7 +640,9 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -759,15 +766,31 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -813,7 +836,9 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -859,7 +884,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -989,15 +1016,31 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1135,7 +1178,9 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>4</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1403,15 +1448,29 @@
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1457,7 +1516,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1513,9 +1574,15 @@
       <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -1607,7 +1674,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1699,7 +1768,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>4</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -1745,7 +1816,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -1791,7 +1864,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <v>4</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -1837,7 +1912,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -1883,7 +1960,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -1929,7 +2008,9 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>4</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2033,7 +2114,9 @@
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -542,7 +542,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1508,12 +1508,24 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5">

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>2ИСИП-722: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Варианты</t>
+  </si>
+  <si>
+    <t>Дз7</t>
+  </si>
+  <si>
+    <t>Дз8</t>
   </si>
 </sst>
 </file>
@@ -538,11 +544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -638,15 +644,27 @@
       <c r="H3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -683,10 +701,22 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="L4" s="4">
+        <f>SUM(L5:L34)</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:O4" si="0">SUM(M5:M34)</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -729,10 +759,22 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="L5" s="5">
+        <f>IF($K5=L$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:O20" si="1">IF($K5=M$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -791,10 +833,22 @@
       <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:O34" si="2">IF($K6=L$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -839,10 +893,22 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="L7" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -887,10 +953,22 @@
       <c r="K8" s="5">
         <v>2</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="L8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -933,10 +1011,22 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="L9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -979,10 +1069,22 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="L10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1041,10 +1143,22 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="L11" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1087,10 +1201,22 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="L12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1132,11 +1258,25 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1181,10 +1321,22 @@
       <c r="K14" s="5">
         <v>4</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1227,10 +1379,22 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="L15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1272,11 +1436,25 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1319,10 +1497,22 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1364,11 +1554,25 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1411,10 +1615,22 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="L19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -1471,10 +1687,22 @@
       <c r="K20" s="5">
         <v>2</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1531,10 +1759,22 @@
       <c r="K21" s="5">
         <v>2</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="L21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -1595,10 +1835,22 @@
       <c r="K22" s="5">
         <v>4</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="L22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -1641,10 +1893,22 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="L23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1689,10 +1953,22 @@
       <c r="K24" s="5">
         <v>2</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="L24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -1735,10 +2011,22 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="L25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1772,21 +2060,49 @@
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>10</v>
+      </c>
       <c r="K26" s="5">
         <v>4</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="L26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -1831,10 +2147,22 @@
       <c r="K27" s="5">
         <v>4</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="L27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -1879,10 +2207,22 @@
       <c r="K28" s="5">
         <v>4</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -1927,10 +2267,22 @@
       <c r="K29" s="5">
         <v>1</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="L29" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1975,10 +2327,22 @@
       <c r="K30" s="5">
         <v>1</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="L30" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -2023,10 +2387,22 @@
       <c r="K31" s="5">
         <v>4</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="L31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -2069,10 +2445,22 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="L32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -2129,10 +2517,22 @@
       <c r="K33" s="5">
         <v>4</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="L33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -2175,10 +2575,22 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="L34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -703,15 +703,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f>SUM(L5:L34)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:O4" si="0">SUM(M5:M34)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
@@ -1200,7 +1200,9 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1211,7 +1213,7 @@
       </c>
       <c r="N12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="1"/>
@@ -1378,7 +1380,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
       <c r="L15" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1389,7 +1393,7 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="1"/>
@@ -1555,11 +1559,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="1"/>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="N18" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="1"/>
@@ -1853,7 +1857,9 @@
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5">
+        <v>5</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -2010,14 +2016,16 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
       <c r="L25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="2"/>
@@ -2105,7 +2113,9 @@
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5">
+        <v>5</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2376,12 +2386,22 @@
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5</v>
+      </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5">
@@ -2444,7 +2464,9 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>3</v>
+      </c>
       <c r="L32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2455,7 +2477,7 @@
       </c>
       <c r="N32" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="2"/>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1550,14 +1550,30 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5">
+        <v>10</v>
+      </c>
       <c r="K18" s="5">
         <v>1</v>
       </c>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,9 @@
       <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
       <c r="K6" s="5">
         <v>4</v>
       </c>
@@ -1312,14 +1314,30 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>10</v>
+      </c>
       <c r="K14" s="5">
         <v>4</v>
       </c>
@@ -2282,13 +2300,23 @@
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5">
+        <v>5</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5">
         <v>1</v>
@@ -2418,8 +2446,12 @@
       <c r="H31" s="5">
         <v>5</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="I31" s="5">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
       <c r="K31" s="5">
         <v>4</v>
       </c>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1396,8 +1396,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
       <c r="K15" s="5">
         <v>3</v>
       </c>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6" s="5">
         <v>4</v>
@@ -2046,13 +2046,27 @@
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5">
         <v>2</v>

--- a/2ИСИП-722.xlsx
+++ b/2ИСИП-722.xlsx
@@ -545,10 +545,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,9 @@
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
